--- a/Reports/Work Load/Task List Report 2 - Preview and Review (Week 2).xlsx
+++ b/Reports/Work Load/Task List Report 2 - Preview and Review (Week 2).xlsx
@@ -1706,9 +1706,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="60">
-        <v>14.0</v>
-      </c>
+      <c r="B24" s="60"/>
       <c r="C24" s="68"/>
       <c r="D24" s="8"/>
       <c r="E24" s="22"/>
@@ -1726,9 +1724,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="60">
-        <v>15.0</v>
-      </c>
+      <c r="B25" s="60"/>
       <c r="C25" s="68"/>
       <c r="D25" s="8"/>
       <c r="E25" s="22"/>
@@ -1746,9 +1742,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="60">
-        <v>16.0</v>
-      </c>
+      <c r="B26" s="60"/>
       <c r="C26" s="68"/>
       <c r="D26" s="8"/>
       <c r="E26" s="22"/>
@@ -1766,9 +1760,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="60">
-        <v>17.0</v>
-      </c>
+      <c r="B27" s="60"/>
       <c r="C27" s="68"/>
       <c r="D27" s="8"/>
       <c r="E27" s="22"/>
@@ -1786,9 +1778,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="60">
-        <v>18.0</v>
-      </c>
+      <c r="B28" s="60"/>
       <c r="C28" s="68"/>
       <c r="D28" s="8"/>
       <c r="E28" s="22"/>
